--- a/Business_in_Long_Island_City_Categories.xlsx
+++ b/Business_in_Long_Island_City_Categories.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +582,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Agriculture &amp; Forestry/Wildlife.  |Business &amp; Information.  |Natural Resources/Environmetal.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Agriculture &amp; Forestry/Wildlife.  |Business &amp; Information.  |Natural Resources/Environmetal.  |IT.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
@@ -716,48 +716,50 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Agriculture &amp; Forestry/Wildlife.  |Natural Resources/Environmetal.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Agriculture &amp; Forestry/Wildlife.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Anat Gerstein Inc.</t>
+          <t>Diamond Security Services, LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anat Gerstein</t>
+          <t>Samuel Gbajumo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7187932211</v>
+        <v>2127545459</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>anat@anatgerstein.com</t>
+          <t>dss1@diamondsecurityservices.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45045</v>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>43-01 21st Street</t>
+          <t>34-18 Northern Boulevard</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Suite 303</t>
+          <t>2nd Floor, Suite 18</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -775,12 +777,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://www.anatgerstein.com</t>
+          <t>http://www.diamondsecurityservices.com</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>We provide communications services, including public relations, to the nonprofit sector.</t>
+          <t>Security guard service, fire watch.</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -792,20 +794,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diamond Security Services, LTD</t>
+          <t>Melcon General Contractors, L.L.C.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Samuel Gbajumo</t>
+          <t>Eric Mendoza</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2127545459</v>
+        <v>7189376000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>dss1@diamondsecurityservices.com</t>
+          <t>em@melcongc.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -814,21 +816,21 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45045</v>
+        <v>44134</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>34-18 Northern Boulevard</t>
+          <t>21-21 41st Avenue</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2nd Floor, Suite 18</t>
+          <t>Suite 1A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -846,12 +848,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://www.diamondsecurityservices.com</t>
+          <t>http://www.melcongc.com</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Security guard service, fire watch.</t>
+          <t>General Construction specializing in Commercial Construction, Structural Steel Erection, Masonry, and Concrete. Multifamily Restoration Local Law II work. Building Inspection New Development work. Interior &amp; Exterior work. Proofing &amp; Waterproofing.</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -863,44 +865,44 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Melcon General Contractors, L.L.C.</t>
+          <t>J. Maples &amp; Associates, Inc.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eric Mendoza</t>
+          <t>Rashida Maples</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7189376000</v>
+        <v>8324232529</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>em@melcongc.com</t>
+          <t>rjm@jmaplesandassociates.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44134</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12/30/2021;12/30/2021</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21-21 41st Avenue</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Suite 1A</t>
-        </is>
+          <t>1-50 50th Avenue</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>2209</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -917,12 +919,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://www.melcongc.com</t>
+          <t>http://www.jmaplesandassociates.com</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>General Construction specializing in Commercial Construction, Structural Steel Erection, Masonry, and Concrete. Multifamily Restoration Local Law II work. Building Inspection New Development work. Interior &amp; Exterior work. Proofing &amp; Waterproofing.</t>
+          <t>J. Maples &amp; Associates is a premiere full-service boutique law firm specializing in providing efficient, competent and extensive legal advice and services in Corporate, Entertainment, and Real Estate transactional and litigation affairs. The firm offers individuals, organizations and corporate entities reliable, effective and high quality services to aid each client in fulfilling their respective goals and responsibilities.</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -934,39 +936,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Active Fire Extinguisher Co., Inc.</t>
+          <t>Unique Comp, Inc.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mildred Munich</t>
+          <t>Kalpano Patel</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7187290450</v>
+        <v>7183925100</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>mmunich@activefire.com</t>
+          <t>kpatel@uciny.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>02/29/2024;02/29/2024</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5-16 47th Avenue</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>27-08 42nd Road</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2nd Floor</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -982,12 +992,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://www.activefire.com</t>
+          <t>http://www.uciny.com</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Fire extinguisher sales and service, kitchen range hood fire protection systems, inspection, recharging, sales and installations. Licensed and certified by NYC FD and NYC Building Development.</t>
+          <t>UCI is an ISO 9001-2008 and MWBE certified business with a successful track record of providing high quality IT services to our clients. We offer a complete range of IT services by leveraging our vertical domain knowledge, expertise and strategic alliances with leading technology providers. Our service offerings include Oracle, People Soft &amp; Microsoft technologies, business intelligence, custom software development, network engineering, operation and maintenance support.</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -999,45 +1009,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J. Maples &amp; Associates, Inc.</t>
+          <t>DT Cabinets &amp; Interior Renovations, Inc.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rashida Maples</t>
+          <t>Fortunato Diagas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8324232529</v>
+        <v>3478703865</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rjm@jmaplesandassociates.com</t>
+          <t>dtcabinets@ymail.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>12/30/2021;12/30/2021</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45168</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1-50 50th Avenue</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2209</v>
-      </c>
+          <t>3229 Greenpoint Avenue</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -1053,12 +1059,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://www.jmaplesandassociates.com</t>
+          <t>http://dtcabinets-renovations.com</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>J. Maples &amp; Associates is a premiere full-service boutique law firm specializing in providing efficient, competent and extensive legal advice and services in Corporate, Entertainment, and Real Estate transactional and litigation affairs. The firm offers individuals, organizations and corporate entities reliable, effective and high quality services to aid each client in fulfilling their respective goals and responsibilities.</t>
+          <t>Residential: Plastering, painting, custom cabinetry, bathroom renovations, alterations, flooring</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1070,31 +1076,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L. J. R. Insulation and General Contracting, Inc.</t>
+          <t>Biform LLC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lila Rumora</t>
+          <t>Irma Hernandez</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7186268920</v>
+        <v>7183610738</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ljrinsulation@gmail.com</t>
+          <t>Biform@biformllc.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>09/29/2020;09/29/2020</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>44803</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1103,10 +1107,14 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31-30 14th Street</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>43-10 Crescent Street</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Suite 1503</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -1118,12 +1126,16 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>11106</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>11101</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://www.biformllc.com</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Installation of Mechanical Insulation as follows: Plumbing System - including Piping, Ductwork, and equipment: Boilers, Breeching, Chillers, Expansion Tank, Heat Exchangers etc.</t>
+          <t>Consultants services for architects and designers. Our services includes CAD drafting, design, DOB applications and approvals, expediter services.</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1135,31 +1147,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unique Comp, Inc.</t>
+          <t>ARK Systems Electric Corp.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kalpano Patel</t>
+          <t>Rajiv Lodaya</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7183925100</v>
+        <v>7184823922</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>kpatel@uciny.com</t>
+          <t>woolsey@arkelectric.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>02/29/2024;02/29/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>44619</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1168,14 +1178,10 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>27-08 42nd Road</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2nd Floor</t>
-        </is>
-      </c>
+          <t>27-08 42nd  Road</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -1191,12 +1197,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://www.uciny.com</t>
+          <t>http://www.arkelectric.com</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>UCI is an ISO 9001-2008 and MWBE certified business with a successful track record of providing high quality IT services to our clients. We offer a complete range of IT services by leveraging our vertical domain knowledge, expertise and strategic alliances with leading technology providers. Our service offerings include Oracle, People Soft &amp; Microsoft technologies, business intelligence, custom software development, network engineering, operation and maintenance support.</t>
+          <t>All phases of Electrical Construction, New Construction, Renovation, Lighting, Fire Alarm Systems, Security Systems, CCTV Systems, Telecommunications, Electrical Upgrading, Power Generations and Power Systems.</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1208,20 +1214,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Splex One, Corp.</t>
+          <t>Electronic Interface Associates, Inc.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Freddy Arias</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>8889977539</v>
+          <t>Matthew Orent</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>646-827-1233</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>contact@splexone.com</t>
+          <t>morent@eia.us</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1230,23 +1238,19 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44285</v>
+        <v>43799</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>31-00 47th Avenue</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Suite 3100</t>
-        </is>
-      </c>
+          <t>34-07 37th Avenue</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -1260,10 +1264,14 @@
       <c r="L12" t="n">
         <v>11101</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>http://www.eia.us</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Splex One provides creative services including video production, web design, audio recording, and audio/visual services for events. We also cover advertising and media buying services.</t>
+          <t>The firm has been a member of the electronic industry for over 35 years. Founded in 1977 as Electronic Interface Associates (EIA), the company has evolved and advanced, becoming one of the leading networked technology firms in America. EIA provides cutting edge solutions to our clients in both the private and government sectors, focusing on mission critical physical security, connectivity, and energy management solutions. All of our clients receive nothing but the finest in seamless integrated technologies. Our products include information transport (data, voice, video, etc.), solutions from local area wireless technology to point to point microwave communications.</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1275,32 +1283,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3RDI Technologies, LLC</t>
+          <t>TakeTwo Services, L.P.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Roy Sirengo</t>
+          <t>Stephanie Arcella</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>908-291-8256</t>
+          <t>347-669-3744</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>business@3rditechnologies.com</t>
+          <t>contact@take2services.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>45596</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>ASIAN</t>
@@ -1308,12 +1314,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3418 Northern Blvd</t>
+          <t>2110 33RD RD</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Ste 304</t>
+          <t>#8B</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1327,37 +1333,43 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>11106</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>http://take2services.com/</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Technology solutions</t>
+          <t>TakeTwo Services is a unique consulting firm, in that we address the development and communications needs of nonprofit organizations under one roof and one team.  We integrate our development and communications strategy work because it saves precious nonprofit resources â staff capacity, time, and money.   TakeTwo has extensive experience in:  ? Strategic fundraising and communications plans ? Event and campaign fundraising strategy ? Online engagement and strategy ? Individual and major donor cultivation strategy ? Board development and strategy ? Grant writing and management ? Nonprofit branding</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>COOL AIR INC</t>
+          <t>OnPoint Security NYC, LLC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ranjit Singh</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>7187212131</v>
+          <t>Douglas Carr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>212-271-0071</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>coolair@coolairnyc.com</t>
+          <t>info@onpointsecurity.nyc</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1366,16 +1378,16 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44864</v>
+        <v>44956</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>35-50 9th Street</t>
+          <t>12-11 40th Avenue</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1390,37 +1402,41 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>11106</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>11101</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://www.onpointsecurity.nyc</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Sales, installation, commissioning and servicing of all kinds of: ductless split systems, room air conditioners, PTAC units, ducted systems (dx type), roof-top package units with gas/electric, indoor package units, chiller systems, water source systems, controls, electronic, manual and pneumatic, all types of dampers.</t>
+          <t>We are a private security firm providing corporate and commercial security, concierge and residential community services, retail loss prevention, unoccupied property security, and special event staffing and security, including television and film production shoots.</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DT Cabinets &amp; Interior Renovations, Inc.</t>
+          <t>MHM Engineering, P.C.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fortunato Diagas</t>
+          <t>Mohamed Mabrouk</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3478703865</v>
+        <v>7183925657</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>dtcabinets@ymail.com</t>
+          <t>mhm@mhmengineering.com</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1429,19 +1445,23 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45168</v>
+        <v>45260</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3229 Greenpoint Avenue</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>39-08 24th Street</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Suite 4</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -1455,64 +1475,54 @@
       <c r="L15" t="n">
         <v>11101</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>http://dtcabinets-renovations.com</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Residential: Plastering, painting, custom cabinetry, bathroom renovations, alterations, flooring</t>
+          <t>Architectural and engineering services general contractors (Construction).</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biform LLC</t>
+          <t>Endeavor Printing, LLC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Irma Hernandez</t>
+          <t>Leslie Baltes</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7183610738</v>
+        <v>7185702720</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Biform@biformllc.com</t>
+          <t>sales@endeavorprinting.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44803</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>43-10 Crescent Street</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Suite 1503</t>
-        </is>
-      </c>
+          <t>37-04 29th Street</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -1526,41 +1536,35 @@
       <c r="L16" t="n">
         <v>11101</v>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>http://www.biformllc.com</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Consultants services for architects and designers. Our services includes CAD drafting, design, DOB applications and approvals, expediter services.</t>
+          <t>We are a digital print shop specializing in short run printing.  Books, brochures, post cards and flyers</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Education.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Prestige Industry Corp.</t>
+          <t>Rockwall Group Enterprises, Inc.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Margie Amaya</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>718-609-0111</t>
-        </is>
+          <t>Mohammad Shahid</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>7184344748</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>info@prestigeindustry.com</t>
+          <t>mta0786@yahoo.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1569,19 +1573,23 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45443</v>
+        <v>44012</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>45-42 Pearson Street</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>11-11 44th Drive</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Floor 2nd Suite #3</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -1598,32 +1606,32 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Prestige Industry Corp. provides on-call waste hauling services in the five boroughs of NYC. Our services include both roll-off and packer services. We offer a variety of sizes for waste removal needs including Y2, 10, 20, 30 and 40 cubic yard dumpsters/containers. .</t>
+          <t>Masonry and Stone Contractors ; BUILDING RENOVATION; MASONRY; WATERPROOFING; ROOFING; LEAD PAINT REMOVAL; FLOOR TILE; LEAD PAINT ABATEMENT PLANS &amp; COMPLIANCE</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Next Solutions C.S Incorporated</t>
+          <t>Al-Ghazali Construction</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Manuel Chimbo</t>
+          <t>Shahid Choudhary</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3474970333</v>
+        <v>9175351969</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>manuel@nextsolutionspro.com</t>
+          <t>alghazaliconst@gmail.com</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1632,19 +1640,23 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45015</v>
+        <v>44315</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>52-25 Barnette Avenue</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>43-01 21st Street</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Suite 330A</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -1656,59 +1668,57 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>11104</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>http://www.nextsolutionspro.com</t>
-        </is>
-      </c>
+        <v>11101</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Next solutions C.S Incorporated is a general contractor that sells services in New York. We have a general contractor license, home improvement licenses and do small to large scale project/repairs depending on the need of our customers. We also do upgrades to cell sites and maintenance work.</t>
+          <t>Al-Ghazali Construction does interior and exterior construction. Exterior services are Brick work, painting, roofing, window work, stone work, tire escapes, terrace work, backing work, sidewalk, steps, stoops, land work buildings, stucco and scaffolding. Interior services are sheet rock, throat, painting, interior renovations, ceramic tiles and flooring.</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ARK Systems Electric Corp.</t>
+          <t>L. J. R. Insulation and General Contracting, Inc.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rajiv Lodaya</t>
+          <t>Lila Rumora</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7184823922</v>
+        <v>7186268920</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>woolsey@arkelectric.com</t>
+          <t>ljrinsulation@gmail.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44619</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>09/29/2020;09/29/2020</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>27-08 42nd  Road</t>
+          <t>31-30 14th Street</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1723,43 +1733,37 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>http://www.arkelectric.com</t>
-        </is>
-      </c>
+        <v>11106</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>All phases of Electrical Construction, New Construction, Renovation, Lighting, Fire Alarm Systems, Security Systems, CCTV Systems, Telecommunications, Electrical Upgrading, Power Generations and Power Systems.</t>
+          <t>Installation of Mechanical Insulation as follows: Plumbing System - including Piping, Ductwork, and equipment: Boilers, Breeching, Chillers, Expansion Tank, Heat Exchangers etc.</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Electronic Interface Associates, Inc.</t>
+          <t>COOL AIR INC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Matthew Orent</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>646-827-1233</t>
-        </is>
+          <t>Ranjit Singh</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>7187212131</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>morent@eia.us</t>
+          <t>coolair@coolairnyc.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1768,7 +1772,7 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>43799</v>
+        <v>44864</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1777,7 +1781,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>34-07 37th Avenue</t>
+          <t>35-50 9th Street</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1792,66 +1796,58 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>http://www.eia.us</t>
-        </is>
-      </c>
+        <v>11106</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>The firm has been a member of the electronic industry for over 35 years. Founded in 1977 as Electronic Interface Associates (EIA), the company has evolved and advanced, becoming one of the leading networked technology firms in America. EIA provides cutting edge solutions to our clients in both the private and government sectors, focusing on mission critical physical security, connectivity, and energy management solutions. All of our clients receive nothing but the finest in seamless integrated technologies. Our products include information transport (data, voice, video, etc.), solutions from local area wireless technology to point to point microwave communications.</t>
+          <t>Sales, installation, commissioning and servicing of all kinds of: ductless split systems, room air conditioners, PTAC units, ducted systems (dx type), roof-top package units with gas/electric, indoor package units, chiller systems, water source systems, controls, electronic, manual and pneumatic, all types of dampers.</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TakeTwo Services, L.P.</t>
+          <t>Next Solutions C.S Incorporated</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Stephanie Arcella</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>347-669-3744</t>
-        </is>
+          <t>Manuel Chimbo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3474970333</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>contact@take2services.com</t>
+          <t>manuel@nextsolutionspro.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45015</v>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2110 33RD RD</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>#8B</t>
-        </is>
-      </c>
+          <t>52-25 Barnette Avenue</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -1863,43 +1859,43 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>11106</v>
+        <v>11104</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://take2services.com/</t>
+          <t>http://www.nextsolutionspro.com</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>TakeTwo Services is a unique consulting firm, in that we address the development and communications needs of nonprofit organizations under one roof and one team.  We integrate our development and communications strategy work because it saves precious nonprofit resources â staff capacity, time, and money.   TakeTwo has extensive experience in:  ? Strategic fundraising and communications plans ? Event and campaign fundraising strategy ? Online engagement and strategy ? Individual and major donor cultivation strategy ? Board development and strategy ? Grant writing and management ? Nonprofit branding</t>
+          <t>Next solutions C.S Incorporated is a general contractor that sells services in New York. We have a general contractor license, home improvement licenses and do small to large scale project/repairs depending on the need of our customers. We also do upgrades to cell sites and maintenance work.</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education. </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OnPoint Security NYC, LLC</t>
+          <t>Prestige Industry Corp.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Douglas Carr</t>
+          <t>Margie Amaya</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>212-271-0071</t>
+          <t>718-609-0111</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>info@onpointsecurity.nyc</t>
+          <t>info@prestigeindustry.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1908,16 +1904,16 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44956</v>
+        <v>45443</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12-11 40th Avenue</t>
+          <t>45-42 Pearson Street</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1934,48 +1930,46 @@
       <c r="L22" t="n">
         <v>11101</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>https://www.onpointsecurity.nyc</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>We are a private security firm providing corporate and commercial security, concierge and residential community services, retail loss prevention, unoccupied property security, and special event staffing and security, including television and film production shoots.</t>
+          <t>Prestige Industry Corp. provides on-call waste hauling services in the five boroughs of NYC. Our services include both roll-off and packer services. We offer a variety of sizes for waste removal needs including Y2, 10, 20, 30 and 40 cubic yard dumpsters/containers. .</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rockwall Group Enterprises, Inc.</t>
+          <t>Pudgy Dragon G8 LLC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mohammad Shahid</t>
+          <t>Gloria Suen</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7184344748</v>
+        <v>6468989882</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>mta0786@yahoo.com</t>
+          <t>pudgydragong8@gmail.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>44012</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10/30/2023;10/30/2023</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1984,12 +1978,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11-11 44th Drive</t>
+          <t>44-15 Purves Street</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Floor 2nd Suite #3</t>
+          <t>3B</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2008,57 +2002,51 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Masonry and Stone Contractors ; BUILDING RENOVATION; MASONRY; WATERPROOFING; ROOFING; LEAD PAINT REMOVAL; FLOOR TILE; LEAD PAINT ABATEMENT PLANS &amp; COMPLIANCE</t>
+          <t>Business strategy consulting, digital marketing consulting, customer segmentation (strategy and analytics)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Heath Services. </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Al-Ghazali Construction</t>
+          <t>Montana Datacom, Inc.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Shahid Choudhary</t>
+          <t>Jennifer Muhlrad</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9175351969</v>
+        <v>7184826789</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>alghazaliconst@gmail.com</t>
+          <t>jennifer@montanadata.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>44315</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>43-01 21st Street</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Suite 330A</t>
-        </is>
-      </c>
+          <t>35-15 11th Street</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -2070,60 +2058,66 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>11106</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>http://www.montanadata.com</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Al-Ghazali Construction does interior and exterior construction. Exterior services are Brick work, painting, roofing, window work, stone work, tire escapes, terrace work, backing work, sidewalk, steps, stoops, land work buildings, stucco and scaffolding. Interior services are sheet rock, throat, painting, interior renovations, ceramic tiles and flooring.</t>
+          <t>We are a wholesale distributor that specializes in supplying electrical, transit, communication, telecommunication, security, audio video products and more. We are centrally located in LIC, NY and have multiple delivery trucks.</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MHM Engineering, P.C.</t>
+          <t>Providence Construction Corp.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mohamed Mabrouk</t>
+          <t>Srikanth Chimata</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7183925657</v>
+        <v>5162995548</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>mhm@mhmengineering.com</t>
+          <t>info@Providenceconstruction.us</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45260</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>03/30/2020;03/30/2020</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>39-08 24th Street</t>
+          <t>37-88 Review Avenue</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Suite 4</t>
+          <t>1st Floor</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2139,58 +2133,64 @@
       <c r="L25" t="n">
         <v>11101</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>http://www.providenceconstruction.com</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Architectural and engineering services general contractors (Construction).</t>
+          <t>Providence Construction - general construction, union, DBE, MBE &amp; WBE. Meets and exceeds quality and safety compliance, timely completion of work.   Transit station rehabilitation, renovations, platform, tactile, rub-rail repairs/replacement. FRP installation, chemical grouting. Tunnel duct bank demolition. Core drilling. Concrete masonry.</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Construction/Utilities/Contracting.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ecoline, Inc.</t>
+          <t>Appo Electrical Contractors, Inc,</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ana Donoso</t>
+          <t>Joseph Albano</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7187841707</v>
+        <v>6465339635</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ecolineinc@aol.com</t>
+          <t>appoelectric@aol.com</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>10/31/2020;10/31/2020</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>41-14 24th Street</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>32-08 38th Ave.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2nd Fl</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -2207,43 +2207,37 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Insulation of mechanical, HVAC and plumbing systems, firestopping.</t>
+          <t>Electrical contracting and installation.</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Personal Services.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Schmit Machine, Inc.</t>
+          <t>Premier Lube, Inc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Justine Mathews</t>
+          <t>Arvinder Ghai</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7187840619</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>info@schmitmachine.com</t>
-        </is>
-      </c>
+        <v>5162050489</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>09/30/2024;09/30/2024</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>44438</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2252,7 +2246,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>47 - 42 37th Avenue</t>
+          <t>37-88 Review Ave</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2269,41 +2263,35 @@
       <c r="L27" t="n">
         <v>11101</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>http://www.schmitmachine.com</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>MACHINE SHOP REPAIR AND REFURBISHING ELEVATOR AND ESCALATOR PARTS</t>
+          <t>Motor oil, motor chemical, greeses, aditives, brake oil, antifreez, power stg oil, oil filters,parts, fenders bumpers, tires.</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Education.  |Personal Services.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Asymptote Architecture, DPC</t>
+          <t>Anat Gerstein Inc.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lise Anne  Couture</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>212-343-7333</t>
-        </is>
+          <t>Anat Gerstein</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7187932211</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>admin@asymptote.net</t>
+          <t>anat@anatgerstein.com</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2319,10 +2307,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1145 46th Ave</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>43-01 21st Street</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Suite 303</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -2338,12 +2330,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://www.asymptote.net</t>
+          <t>http://www.anatgerstein.com</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Full-service Architecture Design firm providing building design, master planning, exhibition design, interior design.</t>
+          <t>We provide communications services, including public relations, to the nonprofit sector.</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2355,36 +2347,40 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Odyssey Transportation, LLC</t>
+          <t>Ecoline, Inc.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kathi Markou</t>
+          <t>Ana Donoso</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7183921700</v>
+        <v>7187841707</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>markou_k@odysseyny.com</t>
+          <t>ecolineinc@aol.com</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10/31/2020;10/31/2020</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>43-39 21st Street</t>
+          <t>41-14 24th Street</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -2401,14 +2397,10 @@
       <c r="L29" t="n">
         <v>11101</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>http://www.odysseyny.com</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Odyssey Transportation deploys vehicles/ground transportation: vans, Sedans, charter buses. We pay attention to details in understanding our clients workflow demands. Our contracts are basic as well as high-end.</t>
+          <t>Insulation of mechanical, HVAC and plumbing systems, firestopping.</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2420,32 +2412,40 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>J.M.J. Electric Corp</t>
+          <t>Schmit Machine, Inc.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>John Greller</t>
+          <t>Justine Mathews</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7184724330</v>
+        <v>7187840619</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>jmjelectr@aol.com</t>
+          <t>info@schmitmachine.com</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LBE</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>09/30/2024;09/30/2024</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>34-11 10th Street</t>
+          <t>47 - 42 37th Avenue</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -2460,12 +2460,16 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>11106</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>11101</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>http://www.schmitmachine.com</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Electrical Construction in Buildings.</t>
+          <t>MACHINE SHOP REPAIR AND REFURBISHING ELEVATOR AND ESCALATOR PARTS</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2477,40 +2481,38 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>First Person Xperience</t>
+          <t>Asymptote Architecture, DPC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Daniel Gomez</t>
+          <t>Lise Anne  Couture</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>646-808-4641</t>
+          <t>212-343-7333</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>procurement@firstpersonxperience.com</t>
+          <t>admin@asymptote.net</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>44956</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>53-28 11th</t>
+          <t>1145 46th Ave</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -2529,12 +2531,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://www.firstpersonxperience.com</t>
+          <t>http://www.asymptote.net</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Live action production and consulting company that specializes in immersive scenario based entertainment, education, and training. Creates fully immersive environments and stories that give guests an extremely unique, educational and entertaining experience.</t>
+          <t>Full-service Architecture Design firm providing building design, master planning, exhibition design, interior design.</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2546,20 +2548,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Endeavor Printing, LLC</t>
+          <t>Odyssey Transportation, LLC</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Leslie Baltes</t>
+          <t>Kathi Markou</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7185702720</v>
+        <v>7183921700</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>sales@endeavorprinting.com</t>
+          <t>markou_k@odysseyny.com</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2575,7 +2577,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>37-04 29th Street</t>
+          <t>43-39 21st Street</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2592,10 +2594,14 @@
       <c r="L32" t="n">
         <v>11101</v>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>http://www.odysseyny.com</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>We are a digital print shop specializing in short run printing.  Books, brochures, post cards and flyers</t>
+          <t>Odyssey Transportation deploys vehicles/ground transportation: vans, Sedans, charter buses. We pay attention to details in understanding our clients workflow demands. Our contracts are basic as well as high-end.</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2607,43 +2613,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Monarch Agency LLC</t>
+          <t>J.M.J. Electric Corp</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Catherine Smith</t>
+          <t>John Greller</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9176135539</v>
+        <v>7184724330</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>monarchagencyllc@gmail.com</t>
+          <t>jmjelectr@aol.com</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WBE</t>
+          <t>LBE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>NON-MINORITY</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>34-22 44th Street</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Suite 3F</t>
-        </is>
-      </c>
+          <t>34-11 10th Street</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -2655,16 +2653,12 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>http://www.monarchagency.com</t>
-        </is>
-      </c>
+        <v>11106</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Monarch Agency is a nationwide model and talent agency. We represent the following divisions of models and actors. Commercial TV and print, tradeshows, promotions and live events.</t>
+          <t>Electrical Construction in Buildings.</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2676,20 +2670,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EIA Datacom Inc.</t>
+          <t>First Person Xperience</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Matthew Orent</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>6468271233</v>
+          <t>Daniel Gomez</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>646-808-4641</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>morent@eia.us</t>
+          <t>procurement@firstpersonxperience.com</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2698,16 +2694,16 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45412</v>
+        <v>44956</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>34-07 37th Avenue</t>
+          <t>53-28 11th</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2726,12 +2722,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://www.eia.us</t>
+          <t>http://www.firstpersonxperience.com</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>EIA Datacom is a leading provider for the expertise and know-how in a diverse set of low voltage technologies, from traditional IT infrastructure to converged networks.  With over 40 years of experience in the low voltage market, we provide top notch CWA technicians who are recognized and certified in a myriad set of fields and manufacturing solutions.  Our certified manufacturing partners include Essex/Ortronics, Panduit/General Cable, Hubbell, Commscope, Berktek/Levito, Corning, and STI Firestop. Our team also includes Registered Communications Distribution Designers (RCDD) to give you the peace of mind that our project managers and engineering staff will always provide a standard of excellence on all build outs.</t>
+          <t>Live action production and consulting company that specializes in immersive scenario based entertainment, education, and training. Creates fully immersive environments and stories that give guests an extremely unique, educational and entertaining experience.</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2743,20 +2739,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>City Lumber Inc.</t>
+          <t>Monarch Agency LLC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bonnie Spodek</t>
+          <t>Catherine Smith</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7189376300</v>
+        <v>9176135539</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bspodek@citylumber.net</t>
+          <t>monarchagencyllc@gmail.com</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2772,10 +2768,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>49-47 31st Street</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>34-22 44th Street</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Suite 3F</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -2791,48 +2791,46 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://www.citylumber.net</t>
+          <t>http://www.monarchagency.com</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Distributor of Building Materials</t>
+          <t>Monarch Agency is a nationwide model and talent agency. We represent the following divisions of models and actors. Commercial TV and print, tradeshows, promotions and live events.</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pudgy Dragon G8 LLC</t>
+          <t>EIA Datacom Inc.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gloria Suen</t>
+          <t>Matthew Orent</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6468989882</v>
+        <v>6468271233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>pudgydragong8@gmail.com</t>
+          <t>morent@eia.us</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>10/30/2023;10/30/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45412</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2841,14 +2839,10 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>44-15 Purves Street</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>3B</t>
-        </is>
-      </c>
+          <t>34-07 37th Avenue</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -2862,57 +2856,55 @@
       <c r="L36" t="n">
         <v>11101</v>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>http://www.eia.us</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Business strategy consulting, digital marketing consulting, customer segmentation (strategy and analytics)</t>
+          <t>EIA Datacom is a leading provider for the expertise and know-how in a diverse set of low voltage technologies, from traditional IT infrastructure to converged networks.  With over 40 years of experience in the low voltage market, we provide top notch CWA technicians who are recognized and certified in a myriad set of fields and manufacturing solutions.  Our certified manufacturing partners include Essex/Ortronics, Panduit/General Cable, Hubbell, Commscope, Berktek/Levito, Corning, and STI Firestop. Our team also includes Registered Communications Distribution Designers (RCDD) to give you the peace of mind that our project managers and engineering staff will always provide a standard of excellence on all build outs.</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Heath Services.  |Real Estate &amp; Housing. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Rise Community Capital LLC</t>
+          <t>City Lumber Inc.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gloria Lee</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>212-217-9497</t>
-        </is>
+          <t>Bonnie Spodek</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7189376300</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>glee@risecommunitycapital.com</t>
+          <t>Bspodek@citylumber.net</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>11/30/2020;11/30/2020</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>217 51st Avenue, #214</t>
+          <t>49-47 31st Street</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2929,35 +2921,39 @@
       <c r="L37" t="n">
         <v>11101</v>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>http://www.citylumber.net</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Rise Community Capital provides business and capital advisory services for clients engaged in economic and community development related activities</t>
+          <t>Distributor of Building Materials</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Finance &amp; Insurance.  |Natural Resources/Environmetal.  |Real Estate &amp; Housing.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Montana Datacom, Inc.</t>
+          <t>Active Fire Extinguisher Co., Inc.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jennifer Muhlrad</t>
+          <t>Mildred Munich</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7184826789</v>
+        <v>7187290450</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>jennifer@montanadata.com</t>
+          <t>mmunich@activefire.com</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2973,7 +2969,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>35-15 11th Street</t>
+          <t>5-16 47th Avenue</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2988,62 +2984,66 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>11106</v>
+        <v>11101</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://www.montanadata.com</t>
+          <t>http://www.activefire.com</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>We are a wholesale distributor that specializes in supplying electrical, transit, communication, telecommunication, security, audio video products and more. We are centrally located in LIC, NY and have multiple delivery trucks.</t>
+          <t>Fire extinguisher sales and service, kitchen range hood fire protection systems, inspection, recharging, sales and installations. Licensed and certified by NYC FD and NYC Building Development.</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>POWER COOLING INC.</t>
+          <t>Splex One, Corp.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lauren Larsen</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>718-784-1300</t>
-        </is>
+          <t>Freddy Arias</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8889977539</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>info@powercooling.com</t>
+          <t>contact@splexone.com</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>44285</v>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>4335 Vernon Blvd</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>31-00 47th Avenue</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Suite 3100</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -3054,53 +3054,51 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>11101-6911</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>http://www.powercooling.com</t>
-        </is>
-      </c>
+      <c r="L39" t="n">
+        <v>11101</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Power Cooling Inc. has been in the HVAC industry since 1966 being one of the largest and complete HVAC Service Companies in the New York metropolitan area, encompassing Reciprocating, Refrigeration, Absorption, and Centrifugal/Turbine equipment.  In addition, we have a 15,000 sq. ft. Machine Shop doing pump repair and rebuilding as well as replacement of valves, blower rebuilding, welding, part fabrication and many other services.</t>
+          <t>Splex One provides creative services including video production, web design, audio recording, and audio/visual services for events. We also cover advertising and media buying services.</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SBN Enterprise Inc.</t>
+          <t>Rise Community Capital LLC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sewraj Bholanauth</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>9173192065</v>
+          <t>Gloria Lee</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>212-217-9497</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SBNenterpriseinc@gmail.com</t>
+          <t>glee@risecommunitycapital.com</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>45198</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>11/30/2020;11/30/2020</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3109,7 +3107,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>50-63 41st Street</t>
+          <t>217 51st Avenue, #214</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -3124,62 +3122,58 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>11104</v>
+        <v>11101</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Licensed trade waste removal expert specializing in the removal of construction waste and debris.</t>
+          <t>Rise Community Capital provides business and capital advisory services for clients engaged in economic and community development related activities</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |IT.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Efficienado Solutions, LLC</t>
+          <t>POWER COOLING INC.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nitin Dacha</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>3475654630</v>
+          <t>Lauren Larsen</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>718-784-1300</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ndacha@efficienados.com</t>
+          <t>info@powercooling.com</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>44560</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>29-28 41st Ave.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Green Desk-Suite 10</t>
-        </is>
-      </c>
+          <t>4335 Vernon Blvd</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -3190,17 +3184,19 @@
           <t>NY</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>11101</v>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>11101-6911</t>
+        </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://www.efficienados.com</t>
+          <t>http://www.powercooling.com</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Our firm is an energy managemrnt solutions company. Our services include energy conservation design and implementation including Solar PV generation, energy efficiency auditing, and lighting electrical services focused on energy savings.</t>
+          <t>Power Cooling Inc. has been in the HVAC industry since 1966 being one of the largest and complete HVAC Service Companies in the New York metropolitan area, encompassing Reciprocating, Refrigeration, Absorption, and Centrifugal/Turbine equipment.  In addition, we have a 15,000 sq. ft. Machine Shop doing pump repair and rebuilding as well as replacement of valves, blower rebuilding, welding, part fabrication and many other services.</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3212,20 +3208,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Green Light Expediting, LLC</t>
+          <t>SBN Enterprise Inc.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Emmanuel Russell</t>
+          <t>Sewraj Bholanauth</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7183921969</v>
+        <v>9173192065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>manny@greenlightexpediting.com</t>
+          <t>SBNenterpriseinc@gmail.com</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3234,16 +3230,16 @@
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44226</v>
+        <v>45198</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>43-24 21 Street, Suite 202</t>
+          <t>50-63 41st Street</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3258,16 +3254,12 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>http://greenlightexpediting.com</t>
-        </is>
-      </c>
+        <v>11104</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Green Light Expediting consists of a group of construction professionals with over 20 years combined experience in the field of building permit expediting and construction consulting. Our emphasis on speed and customer service allows us to secure your municipal approvals in a timely manner, while keeping you in the know throughout the entire process.</t>
+          <t>Licensed trade waste removal expert specializing in the removal of construction waste and debris.</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3279,39 +3271,45 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Amie Gross Architects, P.C.</t>
+          <t>Efficienado Solutions, LLC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Amie Gross</t>
+          <t>Nitin Dacha</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2127554010</v>
+        <v>3475654630</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>asg@amiegrossarchitects.com</t>
+          <t>ndacha@efficienados.com</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>44560</v>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11-11 44th Road, Studio 302</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>29-28 41st Ave.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Green Desk-Suite 10</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -3327,37 +3325,37 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://www.amiegrossarchitects.com</t>
+          <t>http://www.efficienados.com</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>AGA is a multi-disciplinary firm whose employees and consultants specialize in work for not-for-profit organizations, institutions, government agencies, privately-run development firms, and corporations. Building types include affordable housing, supportive housing, community facilities, interior design, and retail. Additionally, AGA has a particular expertise in the development of feasibility studies and master plans relative to zoning, planning, code analysis, and programming issues.</t>
+          <t>Our firm is an energy managemrnt solutions company. Our services include energy conservation design and implementation including Solar PV generation, energy efficiency auditing, and lighting electrical services focused on energy savings.</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Appo Electrical Contractors, Inc,</t>
+          <t>Green Light Expediting, LLC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Joseph Albano</t>
+          <t>Emmanuel Russell</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6465339635</v>
+        <v>7183921969</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>appoelectric@aol.com</t>
+          <t>manny@greenlightexpediting.com</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3366,23 +3364,19 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44984</v>
+        <v>44226</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>32-08 38th Ave.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2nd Fl</t>
-        </is>
-      </c>
+          <t>43-24 21 Street, Suite 202</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -3396,62 +3390,58 @@
       <c r="L44" t="n">
         <v>11101</v>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>http://greenlightexpediting.com</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Electrical contracting and installation.</t>
+          <t>Green Light Expediting consists of a group of construction professionals with over 20 years combined experience in the field of building permit expediting and construction consulting. Our emphasis on speed and customer service allows us to secure your municipal approvals in a timely manner, while keeping you in the know throughout the entire process.</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Personal Services. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Providence Construction Corp.</t>
+          <t>Amie Gross Architects, P.C.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Srikanth Chimata</t>
+          <t>Amie Gross</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5162995548</v>
+        <v>2127554010</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>info@Providenceconstruction.us</t>
+          <t>asg@amiegrossarchitects.com</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>03/30/2020;03/30/2020</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>37-88 Review Avenue</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1st Floor</t>
-        </is>
-      </c>
+          <t>11-11 44th Road, Studio 302</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -3467,42 +3457,48 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://www.providenceconstruction.com</t>
+          <t>http://www.amiegrossarchitects.com</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Providence Construction - general construction, union, DBE, MBE &amp; WBE. Meets and exceeds quality and safety compliance, timely completion of work.   Transit station rehabilitation, renovations, platform, tactile, rub-rail repairs/replacement. FRP installation, chemical grouting. Tunnel duct bank demolition. Core drilling. Concrete masonry.</t>
+          <t>AGA is a multi-disciplinary firm whose employees and consultants specialize in work for not-for-profit organizations, institutions, government agencies, privately-run development firms, and corporations. Building types include affordable housing, supportive housing, community facilities, interior design, and retail. Additionally, AGA has a particular expertise in the development of feasibility studies and master plans relative to zoning, planning, code analysis, and programming issues.</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Business &amp; Information.  |Personal Services. </t>
+          <t xml:space="preserve"> |Business &amp; Information.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Premier Lube, Inc</t>
+          <t>3RDI Technologies, LLC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Arvinder Ghai</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>5162050489</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>Roy Sirengo</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>908-291-8256</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>business@3rditechnologies.com</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>MBE</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44438</v>
+        <v>45596</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3511,10 +3507,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>37-88 Review Ave</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>3418 Northern Blvd</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Ste 304</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -3531,7 +3531,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Motor oil, motor chemical, greeses, aditives, brake oil, antifreez, power stg oil, oil filters,parts, fenders bumpers, tires.</t>
+          <t>Technology solutions</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4000,20 +4000,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>New York Protection Controls, Inc.</t>
+          <t>Altair Enterprises Corp.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Carlos Santiago</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>7189326720</v>
+          <t>Tes Choudri</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>631-406-4175</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>nypc14@aol.com</t>
+          <t>tchoudri@aol.com</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4022,23 +4024,19 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45137</v>
+        <v>44712</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11-11 44th Drive</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Suite H</t>
-        </is>
-      </c>
+          <t>10-14 50th Avenue</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -4055,7 +4053,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Installation of fire alarm systems. Maintenance and service of fire alarm systems.</t>
+          <t>HVAC; heating; ventilation; air condition; thermal; air quality; installation; operation; maintenance.</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4067,39 +4065,45 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Total Safety Consulting, LLC</t>
+          <t>New York Protection Controls, Inc.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Elizabeth Bifulco</t>
+          <t>Carlos Santiago</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7182735113</v>
+        <v>7189326720</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ebifulco@totalsafety.org</t>
+          <t>nypc14@aol.com</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45137</v>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>36-06 43rd Avenue</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>11-11 44th Drive</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Suite H</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -4113,14 +4117,10 @@
       <c r="L55" t="n">
         <v>11101</v>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>http://www.totalsafety.org</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Established in 1996, Total Safety Consulting, LLC (TSC) has been providing safety consulting services for more than 22 years. TSC is one of the largest privately held providers of safety management, loss control engineering services, and environmental health, safety and technical training services in New York.</t>
+          <t>Installation of fire alarm systems. Maintenance and service of fire alarm systems.</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4132,38 +4132,36 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Solid Foundations Ltd.</t>
+          <t>Total Safety Consulting, LLC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Steven Broadnax</t>
+          <t>Elizabeth Bifulco</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7187282812</v>
+        <v>7182735113</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sfoundationsltd@live.com</t>
+          <t>ebifulco@totalsafety.org</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="n">
-        <v>44925</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>34-62 10th Street</t>
+          <t>36-06 43rd Avenue</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -4178,12 +4176,16 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>11106</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>11101</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>http://www.totalsafety.org</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Watch guard and patrol agency: we provide security which includes guard patrol and mobile patrol.</t>
+          <t>Established in 1996, Total Safety Consulting, LLC (TSC) has been providing safety consulting services for more than 22 years. TSC is one of the largest privately held providers of safety management, loss control engineering services, and environmental health, safety and technical training services in New York.</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4737,38 +4739,40 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Take a Break &amp; I'll Bake, LLC</t>
+          <t>Musarrat Rahman</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Faith Osorio</t>
+          <t>Musarrat Rahman</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9172707346</v>
+        <v>7189567161</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>info@takeabreakcakes.com</t>
+          <t>mrahman24@health.nyc.gov</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="n">
-        <v>44164</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>08/30/2022;08/30/2022</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>36-46 37th Street</t>
+          <t>3368 14th Street</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -4783,16 +4787,12 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>http://takeabreakcakes.com</t>
-        </is>
-      </c>
+        <v>11106</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Family owned and operated southern style bakery. We sell our special Rum Drum cake, Sweet Potato Pie, Pineapple Upside down cake, Sweet Cream Cheese Pie with Cherry and Blueberry toppings, Apple Cinnamon Biscuit Pie.</t>
+          <t>Public health consultant that provides assistance on multiple grant-funded research projects and hospital trainings.</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5082,41 +5082,43 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CES Consultants</t>
+          <t>Right Tree Consulting, LLC</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Rudy Ortiz</t>
+          <t>Maria Puglisi</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7184724101</v>
+        <v>7183921197</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>cesinfo@cesconsult.com</t>
+          <t>maria@righttreeconsulting.com</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="n">
-        <v>45443</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>45-10 Court Square 1st Floor</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>44-70 21st Street</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>#116</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -5130,10 +5132,14 @@
       <c r="L70" t="n">
         <v>11101</v>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>http://www.righttreeconsulting.com</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Civil Engineering, Structural Engineering, Project Management, Construction Management, Planning, Cost Estimating Services, Field Inspection/Construction Oversight, Wastewater Treatment Plants, Grading &amp; Drainage, Roadway</t>
+          <t>Right Tree offers training and technical assistance that strengthens and positions nonprofits and public sector agencies for success. We help organizations acquire and reinforce essential communications, management, and marketing competencies. Specialties include: core message development, strategic planning retreats, special events, outreach and awareness initiatives, recruitment/retention programs, and business process improvement plans.</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5145,43 +5151,41 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Right Tree Consulting, LLC</t>
+          <t>Grand Meridian Printing Inc.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Maria Puglisi</t>
+          <t>K. Y. Chow</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7183921197</v>
+        <v>7189373888</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>maria@righttreeconsulting.com</t>
+          <t>kychow@gmprintingny.com</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45322</v>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>44-70 21st Street</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>#116</t>
-        </is>
-      </c>
+          <t>31-16 Hunters Point Avenue</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -5197,12 +5201,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://www.righttreeconsulting.com</t>
+          <t>http://www.gmprintingny.com</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Right Tree offers training and technical assistance that strengthens and positions nonprofits and public sector agencies for success. We help organizations acquire and reinforce essential communications, management, and marketing competencies. Specialties include: core message development, strategic planning retreats, special events, outreach and awareness initiatives, recruitment/retention programs, and business process improvement plans.</t>
+          <t>Full offset printer with full &amp; bindery service with digital printing capacity for printing service from one color to 8 color job, including wide format printing like posters, banners, signage up to 80' wide with mounting capability</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5214,38 +5218,36 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Grand Meridian Printing Inc.</t>
+          <t>Racine Berkow Associate, Inc.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>K. Y. Chow</t>
+          <t>Racine Berkow</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7189373888</v>
+        <v>7184828384</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>kychow@gmprintingny.com</t>
+          <t>racine@racineberkow.com</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="n">
-        <v>45322</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>31-16 Hunters Point Avenue</t>
+          <t>34-24 Hunters Point Avenue</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5264,12 +5266,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://www.gmprintingny.com</t>
+          <t>http://www.finearttransport.com</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Full offset printer with full &amp; bindery service with digital printing capacity for printing service from one color to 8 color job, including wide format printing like posters, banners, signage up to 80' wide with mounting capability</t>
+          <t>Customs brokers &amp; freight forwarders, projects managers; fine art trucking, packing , handling, shipping storage.</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5281,41 +5283,43 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Roya Media LLC</t>
+          <t>H&amp;O Engineering DPC</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Roya Kazemi</t>
+          <t>Alexis Andrews</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9175796115</v>
+        <v>3476390669</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>info@visionflourish.com</t>
+          <t>santiago@hando-eng.com</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>45168</v>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1-50 50th Avenue</t>
+          <t>44-02 11th Street</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Suite 1108</t>
+          <t>Ste. 406</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5333,12 +5337,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://www.visionflourish.com</t>
+          <t>http://www.handoeng.com</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Vision Flourish is a marketing consultancy dedicated to working with municipal governments and nonprofits to develop strong, sophisticated, and successful marketing programs. Our services include marketing strategy, brand development, messaging, media planning and buying, and marketing trainings. Vision Flourish takes a data-driven, multi-disciplinary approach to crafting effective campaigns for clients.</t>
+          <t>H&amp;O Engineering provides a wide variety of structural related design and construction services, such as structural forensics, structural renewal, structural design, special inspection and demolition engineering. H&amp;O Engineering provides services in the greater NYC area.</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5350,39 +5354,47 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Racine Berkow Associate, Inc.</t>
+          <t>Black Box Engineering</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Racine Berkow</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>7184828384</v>
+          <t>David Bueno</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>347-460-2345</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>racine@racineberkow.com</t>
+          <t>david@bbe.nyc</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>45688</v>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>34-24 Hunters Point Avenue</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>1046 44th Drive</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>B205</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -5398,12 +5410,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://www.finearttransport.com</t>
+          <t>http://www.bbe.nyc</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Customs brokers &amp; freight forwarders, projects managers; fine art trucking, packing , handling, shipping storage.</t>
+          <t>Black Box Engineering provides structural consulting, design, and inspection services for low to mid-rise buildings in New York City and its neighboring counties.</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5415,45 +5427,39 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>H&amp;O Engineering DPC</t>
+          <t>Opus Architectural Arts, LLC</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Alexis Andrews</t>
+          <t>Michelle Quartin</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3476390669</v>
+        <v>6313271532</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>santiago@hando-eng.com</t>
+          <t>Michellequartin@gmail.com</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="n">
-        <v>45168</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>44-02 11th Street</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Ste. 406</t>
-        </is>
-      </c>
+          <t>49-15 Vernon Blvd.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -5469,12 +5475,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://www.handoeng.com</t>
+          <t>http://www.opusrestoration.com</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>H&amp;O Engineering provides a wide variety of structural related design and construction services, such as structural forensics, structural renewal, structural design, special inspection and demolition engineering. H&amp;O Engineering provides services in the greater NYC area.</t>
+          <t>Historic conservation and restoration services. We work with masonry, wood finishes, plaster, paints, stains gilding and resins. Proficient in shape, texture and color matching. Produces sculptures and ornamental elements, through the process of modeling, mold making, casting, carving and scagliola. Design and execution of murals, techniques including faux trompe-l'oeil, staining, stenciling, gilding and glazing, on-site installation.</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5486,45 +5492,41 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Black Box Engineering</t>
+          <t>Halo Construction Group Inc.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>David Bueno</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>347-460-2345</t>
-        </is>
+          <t>Heidi Wheeler</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>6469439073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>david@bbe.nyc</t>
+          <t>heidiwheeler@haloconsult.com</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="n">
-        <v>45688</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1046 44th Drive</t>
+          <t>4215 34th Avenue</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>B205</t>
+          <t>#4H</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5540,14 +5542,10 @@
       <c r="L76" t="n">
         <v>11101</v>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>http://www.bbe.nyc</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Black Box Engineering provides structural consulting, design, and inspection services for low to mid-rise buildings in New York City and its neighboring counties.</t>
+          <t>I am a construction management firm. I contract with general contractors and building owners to manage or assist with managing construction/renovation projects. My duties range from analyzing drawings for estimating to facilitating the project through to completion.</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5559,36 +5557,38 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Opus Architectural Arts, LLC</t>
+          <t>LCR Inc</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Michelle Quartin</t>
+          <t>Ricky Chan</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6313271532</v>
+        <v>7189370848</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Michellequartin@gmail.com</t>
+          <t>rchan@rj-enterprises.com</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>44012</v>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>49-15 Vernon Blvd.</t>
+          <t>3814 30th Street</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -5607,12 +5607,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://www.opusrestoration.com</t>
+          <t>http://www.rj-enterprises.com</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Historic conservation and restoration services. We work with masonry, wood finishes, plaster, paints, stains gilding and resins. Proficient in shape, texture and color matching. Produces sculptures and ornamental elements, through the process of modeling, mold making, casting, carving and scagliola. Design and execution of murals, techniques including faux trompe-l'oeil, staining, stenciling, gilding and glazing, on-site installation.</t>
+          <t>Computer and network cable installation,Rack and panel connectors manufacturing, Computer hardware consulting services or consultants, Computer and Computer Peripheral Equipment and Software Merchant Wholesalers, Computer and Office Machine Repair and Maintenance.</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5624,38 +5624,42 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LCR Inc</t>
+          <t>Lion Guard Tax Service LLC</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ricky Chan</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>7189370848</v>
+          <t>Sheila Saint-Festin</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>929-383-0381</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rchan@rj-enterprises.com</t>
+          <t>sheila@lionguardtaxservice.com</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="n">
-        <v>44012</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>01/31/2022;01/31/2022</t>
+        </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3814 30th Street</t>
+          <t>34-18 Northern Blvd. Suite 305</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5674,12 +5678,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://www.rj-enterprises.com</t>
+          <t>http://www.lionguardtaxservice.com</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Computer and network cable installation,Rack and panel connectors manufacturing, Computer hardware consulting services or consultants, Computer and Computer Peripheral Equipment and Software Merchant Wholesalers, Computer and Office Machine Repair and Maintenance.</t>
+          <t>Lion Guard Tax Service provides the following services in Tax, Accounting, Bookkeeping, and Payroll. The company was started in an effort to help clients navigate their way through the trails of tax season. Our team includes President/CEO Sheila who holds a Master of Accountancy in Taxation from Rutgers University. Our dedicated professionals are able to prepare taxes in a variety of areas, including individuals, partnerships, and corporations. Also, We educate clients on implementation of tax consequences.</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5691,42 +5695,36 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lion Guard Tax Service LLC</t>
+          <t>LEADCARE Inc.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sheila Saint-Festin</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>929-383-0381</t>
-        </is>
+          <t>Sarah Attias-Dunn</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>7187068383</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>sheila@lionguardtaxservice.com</t>
+          <t>dunn@leadcare.com</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>01/31/2022;01/31/2022</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>34-18 Northern Blvd. Suite 305</t>
+          <t>10-25 44th Avenue</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5745,12 +5743,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://www.lionguardtaxservice.com</t>
+          <t>http://www.leadcare.com</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Lion Guard Tax Service provides the following services in Tax, Accounting, Bookkeeping, and Payroll. The company was started in an effort to help clients navigate their way through the trails of tax season. Our team includes President/CEO Sheila who holds a Master of Accountancy in Taxation from Rutgers University. Our dedicated professionals are able to prepare taxes in a variety of areas, including individuals, partnerships, and corporations. Also, We educate clients on implementation of tax consequences.</t>
+          <t>Lead, Asbestos and Hazardous Material Testing, Project Management, Monitoring and Consulting.</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5762,39 +5760,47 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LEADCARE Inc.</t>
+          <t>Ebony Office Products, Inc.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sarah Attias-Dunn</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>7187068383</v>
+          <t>Roger Elliott</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>718-706-8200</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>dunn@leadcare.com</t>
+          <t>info@ebonyofficeusa.com</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>44619</v>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>10-25 44th Avenue</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
+          <t>44-02 11th Street</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Suite 503</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -5810,39 +5816,37 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://www.leadcare.com</t>
+          <t>http://www.ebonyofficeusa.com</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Lead, Asbestos and Hazardous Material Testing, Project Management, Monitoring and Consulting.</t>
+          <t>Reseller of office supplies, office furniture and computer supplies.</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ebony Office Products, Inc.</t>
+          <t>Candela Systems Corporation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Roger Elliott</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>718-706-8200</t>
-        </is>
+          <t>James Bernardo</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>8002455483</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>info@ebonyofficeusa.com</t>
+          <t>jbernardo@candelasystems.com</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5851,23 +5855,19 @@
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44619</v>
+        <v>44346</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>44-02 11th Street</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Suite 503</t>
-        </is>
-      </c>
+          <t>37-20 34th Street</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -5883,12 +5883,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://www.ebonyofficeusa.com</t>
+          <t>http://www.candelasystems.com</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Reseller of office supplies, office furniture and computer supplies.</t>
+          <t>Candela Systems Corporation is a diverse company that provides skilled labor combined with old world work ethics and pride in the lighting industry.  By using a structured project methodology, you can be assured that Candela Systems has the experience, knowledge, licenses and skills to complete a project in a timely and professional matter.</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -5900,20 +5900,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Candela Systems Corporation</t>
+          <t>EIA Electric, Inc.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>James Bernardo</t>
+          <t>Matthew Orent</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8002455483</v>
+        <v>6468271233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jbernardo@candelasystems.com</t>
+          <t>morent@eia.us</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5922,16 +5922,16 @@
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>44346</v>
+        <v>45291</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>37-20 34th Street</t>
+          <t>34-07 37th Avenue</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5950,55 +5950,53 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://www.candelasystems.com</t>
+          <t>http://www.eia.us</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Candela Systems Corporation is a diverse company that provides skilled labor combined with old world work ethics and pride in the lighting industry.  By using a structured project methodology, you can be assured that Candela Systems has the experience, knowledge, licenses and skills to complete a project in a timely and professional matter.</t>
+          <t>EIA Electric Inc. provides cutting edge solutions to our clients in both the private and government sectors, focusing on mission critical physical security, electrical work, connectivity, and energy management solutions</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Food &amp; Hospitality. </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EIA Electric, Inc.</t>
+          <t>Bellweather LLC</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Matthew Orent</t>
+          <t>Jessica Moore</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6468271233</v>
+        <v>3475082355</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>morent@eia.us</t>
+          <t>bellweatheragency@gmail.com</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="n">
-        <v>45291</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>34-07 37th Avenue</t>
+          <t>10-16 46th Ave.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -6017,12 +6015,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://www.eia.us</t>
+          <t>http://bellweather.agency</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>EIA Electric Inc. provides cutting edge solutions to our clients in both the private and government sectors, focusing on mission critical physical security, electrical work, connectivity, and energy management solutions</t>
+          <t>Bellweather is a full service branding, marketing, and advertising agency.  We conceive and deliver graphic design, branding and marketing collateral for a variety of businesses and organizations.  We have worked with public and private sector clients delivering graphic design work, brand toolkits, and marketing collateral and strategy.</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6034,36 +6032,40 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Bellweather LLC</t>
+          <t>ITM Construction Corp</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jessica Moore</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>3475082355</v>
+          <t>Tufail Mohammad</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>718-956-8483</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>bellweatheragency@gmail.com</t>
+          <t>ITMcorp.786@gmail.com</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>45443</v>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>10-16 46th Ave.</t>
+          <t>12-23 30th Road</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -6078,16 +6080,12 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>http://bellweather.agency</t>
-        </is>
-      </c>
+        <v>11102</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Bellweather is a full service branding, marketing, and advertising agency.  We conceive and deliver graphic design, branding and marketing collateral for a variety of businesses and organizations.  We have worked with public and private sector clients delivering graphic design work, brand toolkits, and marketing collateral and strategy.</t>
+          <t>THE INTERIOR EXTERIOR RENOVATION FACADE REPAIRS AS PER LOCAL LAW ROOF CONSTRUCTION VAULT REPAIR NEW GENERAL CONSTRUCTION AND EXTENTION PROJECT.</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6099,43 +6097,47 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ITM Construction Corp</t>
+          <t>CST Environmental LLC</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tufail Mohammad</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>718-956-8483</t>
-        </is>
+          <t>Flor Cordero</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>6464062735</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ITMcorp.786@gmail.com</t>
+          <t>flora_cor@hotmail.com</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="n">
-        <v>45443</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>01/30/2022;01/30/2022</t>
+        </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>12-23 30th Road</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>40-17 23 St.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>#3</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -6147,62 +6149,60 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>11102</v>
+        <v>11101</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>THE INTERIOR EXTERIOR RENOVATION FACADE REPAIRS AS PER LOCAL LAW ROOF CONSTRUCTION VAULT REPAIR NEW GENERAL CONSTRUCTION AND EXTENTION PROJECT.</t>
+          <t>CST provides removal of hazardous waste material such as PCB, lead, asbestos either friable or non-friable. We also provide services of home improvement including but not limited to interior demolition &amp; exterior facade work. CST works for residential, commercial, industrial &amp; City or State buildings.</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Food &amp; Hospitality. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Heath Services. </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CST Environmental LLC</t>
+          <t>Material Matters, Inc.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Flor Cordero</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>6464062735</v>
+          <t>Trudy Johnston</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>717-367-9697</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>flora_cor@hotmail.com</t>
+          <t>tjohnston@materialmatters.com</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>01/30/2022;01/30/2022</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>40-17 23 St.</t>
+          <t>The Falchi Building</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>#3</t>
+          <t>31-00 47th Avenue, Suite 3100</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6218,55 +6218,57 @@
       <c r="L86" t="n">
         <v>11101</v>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>https://materialmatters.com/</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>CST provides removal of hazardous waste material such as PCB, lead, asbestos either friable or non-friable. We also provide services of home improvement including but not limited to interior demolition &amp; exterior facade work. CST works for residential, commercial, industrial &amp; City or State buildings.</t>
+          <t>Material Matters was founded in 1997 on the premise that client needs are the highest priority. We are an environmental consulting firm that offers a wide range of experience in developing solutions for managing and recycling residuals, evaluating residuals programs, and acquiring regulatory permits. Our staff includes professionals with multiple skill sets to meet our clientsâ needs, including a certified soil scientist, a professional engineer, environmental scientists, and experienced wastewater operators. Our clients appreciate our strong understanding of the regulatory system and awareness of their needs, which enables us to pursue each task directly and troubleshoot problems resourcefully.  Material Matters is a certified Woman Owned Enterprise.</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Heath Services. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>APC Specialist LLC</t>
+          <t>Take a Break &amp; I'll Bake, LLC</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Preet Kershaw</t>
+          <t>Faith Osorio</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7189242089</v>
+        <v>9172707346</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>apcspecialist1@gmail.com</t>
+          <t>info@takeabreakcakes.com</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>11/29/2022;11/29/2022</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>44164</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>31-00 47th Ave</t>
+          <t>36-46 37th Street</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -6283,35 +6285,39 @@
       <c r="L87" t="n">
         <v>11101</v>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>http://takeabreakcakes.com</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Commercial &amp; industrial painting, epoxy painting, lead abatement, fireproofing, waterproofing.</t>
+          <t>Family owned and operated southern style bakery. We sell our special Rum Drum cake, Sweet Potato Pie, Pineapple Upside down cake, Sweet Cream Cheese Pie with Cherry and Blueberry toppings, Apple Cinnamon Biscuit Pie.</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Castlestone Construction Corp.</t>
+          <t>CES Consultants</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Abdul Latif</t>
+          <t>Rudy Ortiz</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7184725678</v>
+        <v>7184724101</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>info@castlestonecorp.com</t>
+          <t>cesinfo@cesconsult.com</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6320,16 +6326,16 @@
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>43737</v>
+        <v>45443</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>36-20 13th Street</t>
+          <t>45-10 Court Square 1st Floor</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -6344,39 +6350,39 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>11106</v>
+        <v>11101</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>We provide general contracting services throughout the NY area. Our specialties include interior renovation, exterior renovation and facade restoration.</t>
+          <t>Civil Engineering, Structural Engineering, Project Management, Construction Management, Planning, Cost Estimating Services, Field Inspection/Construction Oversight, Wastewater Treatment Plants, Grading &amp; Drainage, Roadway</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kalel Holdings, LLC</t>
+          <t>EJZ Engineering PLLC</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pierre Downing</t>
+          <t>Edgar Zephyrine</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>718-640-4514</t>
+          <t>347-885-8409</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>kalelholdingsllc@gmail.com</t>
+          <t>info@ejzengineering.com</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6385,7 +6391,7 @@
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45443</v>
+        <v>45565</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -6394,12 +6400,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>33-01 38th Avenue</t>
+          <t>3100 47th Avenue</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Unit 6N</t>
+          <t>Suite 3100</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6415,53 +6421,59 @@
       <c r="L89" t="n">
         <v>11101</v>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>http://www.ejzengineering.com</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Kalel Holdings, LLC (KALEL) is a private real estate development firm specializing in the development and ownership of affordable multifamily housing throughout the New York metropolitan area.  Utilizing various disciplines, KALEL engages in the acquisition, financial engineering, improvement and asset management of commercial real estate.  We also collaborate with nonprofit and for-profit developers to maximize the financial resources delivered to a given transaction, and always work to create a positive long-term economic impact with each development.</t>
+          <t>MEP Design Engineering Firm</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Motor Vehicle.  |Transportation. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jomen Electrical Contracting Corp.</t>
+          <t>APC Specialist LLC</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Joseph Mendez</t>
+          <t>Preet Kershaw</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7187841662</v>
+        <v>7189242089</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>jomen@verizon.net</t>
+          <t>apcspecialist1@gmail.com</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="n">
-        <v>44196</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>11/29/2022;11/29/2022</t>
+        </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>52-10 35th Street</t>
+          <t>31-00 47th Ave</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -6481,34 +6493,34 @@
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
-          <t>NYC based electrical contractor, commercial and residential.</t>
+          <t>Commercial &amp; industrial painting, epoxy painting, lead abatement, fireproofing, waterproofing.</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EJZ Engineering PLLC</t>
+          <t>Kalel Holdings, LLC</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Edgar Zephyrine</t>
+          <t>Pierre Downing</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>347-885-8409</t>
+          <t>718-640-4514</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>info@ejzengineering.com</t>
+          <t>kalelholdingsllc@gmail.com</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6517,7 +6529,7 @@
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45565</v>
+        <v>45443</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -6526,12 +6538,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>3100 47th Avenue</t>
+          <t>33-01 38th Avenue</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Suite 3100</t>
+          <t>Unit 6N</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6547,66 +6559,56 @@
       <c r="L91" t="n">
         <v>11101</v>
       </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>http://www.ejzengineering.com</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
-          <t>MEP Design Engineering Firm</t>
+          <t>Kalel Holdings, LLC (KALEL) is a private real estate development firm specializing in the development and ownership of affordable multifamily housing throughout the New York metropolitan area.  Utilizing various disciplines, KALEL engages in the acquisition, financial engineering, improvement and asset management of commercial real estate.  We also collaborate with nonprofit and for-profit developers to maximize the financial resources delivered to a given transaction, and always work to create a positive long-term economic impact with each development.</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Real Estate &amp; Housing.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Motor Vehicle.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SKJ Lighting Design</t>
+          <t>Jomen Electrical Contracting Corp.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Kyoungjin Shin</t>
+          <t>Joseph Mendez</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6468010008</v>
+        <v>7187841662</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>lydia@skjlightingdesign.com</t>
+          <t>jomen@verizon.net</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>08/30/2023;08/30/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>11-22 44th Road</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Suite 200</t>
-        </is>
-      </c>
+          <t>52-10 35th Street</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -6620,62 +6622,56 @@
       <c r="L92" t="n">
         <v>11101</v>
       </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>http://www.skjlightingdesign.com</t>
-        </is>
-      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
-          <t>SKJ Lighting Design is a full-service architectural lighting design consultancy based in New York. Our diverse project experience includes interior and exterior for corporative headquarters, educational, hospitality, entertainment, office building and interiors, public transportation, residential and retails.</t>
+          <t>NYC based electrical contractor, commercial and residential.</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Transportation. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Tal Solutions, LLC</t>
+          <t>Solid Foundations Ltd.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Diane Hansen</t>
+          <t>Steven Broadnax</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3474785194</v>
+        <v>7187282812</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>marcia@talsolutions.com</t>
+          <t>Sfoundationsltd@live.com</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>44925</v>
+      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>31-100 47th Ave.</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Suite 3100</t>
-        </is>
-      </c>
+          <t>34-62 10th Street</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -6687,41 +6683,37 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>http://www.talsolutions.com</t>
-        </is>
-      </c>
+        <v>11106</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Tal Solutions bring value to clients by helping them create profit growth opportunities from their own data. We do this by designing &amp; building analytical frameworks &amp; creating processes for developing enterprise political programs &amp; products. We enable businesses to better understanding their customs provide differentiated solutions and deliver rich results.</t>
+          <t>Watch guard and patrol agency: we provide security which includes guard patrol and mobile patrol.</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Education. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Amy Scherber Inc</t>
+          <t>Roya Media LLC</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Lana McDonnell</t>
+          <t>Roya Kazemi</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2124622038</v>
+        <v>9175796115</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>amy@amysbread.com</t>
+          <t>info@visionflourish.com</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6737,10 +6729,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>48-09 34th St</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
+          <t>1-50 50th Avenue</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Suite 1108</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -6756,37 +6752,37 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://www.amysbread.com</t>
+          <t>http://www.visionflourish.com</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Amy's Bread is a retail and wholesale baker of bread, pastry, cakes, sandwiches and salads.  We have 3 retail stores and 2 kiosks in Manhattan, kitchens and offices in Long Island City, NY.</t>
+          <t>Vision Flourish is a marketing consultancy dedicated to working with municipal governments and nonprofits to develop strong, sophisticated, and successful marketing programs. Our services include marketing strategy, brand development, messaging, media planning and buying, and marketing trainings. Vision Flourish takes a data-driven, multi-disciplinary approach to crafting effective campaigns for clients.</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Education.  |Personal Services. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>School of Construction Safety, LLC</t>
+          <t>Castlestone Construction Corp.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jorge Ceballos</t>
+          <t>Abdul Latif</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7184409896</v>
+        <v>7184725678</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>info@nycosha.com</t>
+          <t>info@castlestonecorp.com</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6795,23 +6791,19 @@
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45596</v>
+        <v>43737</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>10-40 45th Ave</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Third Floor</t>
-        </is>
-      </c>
+          <t>36-20 13th Street</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -6823,50 +6815,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>http://www.nycosha.com</t>
-        </is>
-      </c>
+        <v>11106</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
-          <t>We offer a variety of construction safety courses for the construction industry and general industry. OSHA, NYC Department of Buildings and Department of Environmental Protection are among the list of certification courses we offer.</t>
+          <t>We provide general contracting services throughout the NY area. Our specialties include interior renovation, exterior renovation and facade restoration.</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Personal Services.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>M &amp; M Pest Control Inc.</t>
+          <t>SKJ Lighting Design</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Timothy Wong</t>
+          <t>Kyoungjin Shin</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2122198218</v>
+        <v>6468010008</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>management@mmenviro.net</t>
+          <t>lydia@skjlightingdesign.com</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="n">
-        <v>45443</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>08/30/2023;08/30/2023</t>
+        </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -6875,12 +6865,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>39-27 29th Street</t>
+          <t>11-22 44th Road</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Suite 3</t>
+          <t>Suite 200</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6898,58 +6888,60 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://www.mandmpestcontrol.com</t>
+          <t>http://www.skjlightingdesign.com</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Pest control, air quality testing, mold, lead inspections, and remediation.</t>
+          <t>SKJ Lighting Design is a full-service architectural lighting design consultancy based in New York. Our diverse project experience includes interior and exterior for corporative headquarters, educational, hospitality, entertainment, office building and interiors, public transportation, residential and retails.</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
+          <t xml:space="preserve"> |Construction/Utilities/Contracting.  |Transportation. </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MIDRE Contracting Corp.</t>
+          <t>Tal Solutions, LLC</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Marco Mendez</t>
+          <t>Diane Hansen</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7188964266</v>
+        <v>3474785194</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>marco@midrecontracting.com</t>
+          <t>marcia@talsolutions.com</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="n">
-        <v>44619</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>42-71 Hunter Street</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
+          <t>31-100 47th Ave.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Suite 3100</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -6965,57 +6957,57 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://www.midre.com</t>
+          <t>http://www.talsolutions.com</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>HVAC Services</t>
+          <t>Tal Solutions bring value to clients by helping them create profit growth opportunities from their own data. We do this by designing &amp; building analytical frameworks &amp; creating processes for developing enterprise political programs &amp; products. We enable businesses to better understanding their customs provide differentiated solutions and deliver rich results.</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
+          <t xml:space="preserve"> |Education. </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Nunez Electric, Inc.</t>
+          <t>Not Jus Southern LLC</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Jose Nunez</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>718-786-6473</t>
-        </is>
+          <t>Annie Taylor</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>7182859185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>nunezelectric@aol.com</t>
+          <t>njscaterer@ymail.com</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="n">
-        <v>45137</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>06/29/2023;06/29/2023</t>
+        </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3214 Greenpoint Avenue</t>
+          <t>36-46 37th Street</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -7032,35 +7024,39 @@
       <c r="L98" t="n">
         <v>11101</v>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>http://notjussouthern.com</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Specialize in broad range of electrical services, data, wiring, lighting and power. Public address and fire alarm systems, energy start compliances, and building management systems installation and maintenance.</t>
+          <t>Offsite catering company. We provide 5 cuisines including desserts to all types of private and business events, meetings,  or functions.</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
+          <t xml:space="preserve"> |Education.  |Media &amp; Entertainment. </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Gallery Design Studio LLC</t>
+          <t>Amy Scherber Inc</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Caroline Petersen</t>
+          <t>Lana McDonnell</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3473307615</v>
+        <v>2124622038</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>caroline@gallerydesignstudio.com</t>
+          <t>amy@amysbread.com</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7076,7 +7072,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>31-00 47th Ave, Third floor</t>
+          <t>48-09 34th St</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -7095,37 +7091,37 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://gallerydesignstudio.com</t>
+          <t>http://www.amysbread.com</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Graphic design studio based in Long Island City proving branding services specializing in non-profits and media organizations as well as food startups.</t>
+          <t>Amy's Bread is a retail and wholesale baker of bread, pastry, cakes, sandwiches and salads.  We have 3 retail stores and 2 kiosks in Manhattan, kitchens and offices in Long Island City, NY.</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality.  |Personal Services. </t>
+          <t xml:space="preserve"> |Education.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>American Taximeters &amp; Communications, Inc.</t>
+          <t>Quantum Electric Corp.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Yvette Rivera</t>
+          <t>Richard Sobel</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7189374600</v>
+        <v>7187849010</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Nelson@AT-C.com</t>
+          <t>rsobel@quantumec.com</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7134,7 +7130,7 @@
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>44042</v>
+        <v>44226</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -7143,7 +7139,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>21-46 44th Drive</t>
+          <t>36-24 34th Street</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -7158,60 +7154,62 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>11101</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>http://AT-C.com</t>
-        </is>
-      </c>
+        <v>11106</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Sales &amp; Service of accessible dispatching systems, communication equipment, taximeters, taxi top lights, mobile security camera systems, and safety warning devices.</t>
+          <t>Full Service Electrical Contractor in NYC. Work provided includes Electrical, Tele/Data, Security, Fire Alarm, Fiber Optic, Dactronics, Maintenance/Security and Alternative Energy.</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Food &amp; Hospitality.  |Personal Services. </t>
+          <t xml:space="preserve"> |Education.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Act Electrical &amp; Data Supplies Inc.</t>
+          <t>School of Construction Safety, LLC</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Linda Gruman</t>
+          <t>Jorge Ceballos</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7189373982</v>
+        <v>7184409896</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>linda@actelectricalinc.com</t>
+          <t>info@nycosha.com</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>45596</v>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>43-73 9th Street</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr"/>
+          <t>10-40 45th Ave</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Third Floor</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -7227,60 +7225,60 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://actelectricalinc.com</t>
+          <t>http://www.nycosha.com</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Wholesale supplier of electrical products including but not limited to; pipe, street lighting products, wire floor boxes, lighting fixtures, switch gear, ups systems, data equipment, etc.</t>
+          <t>We offer a variety of construction safety courses for the construction industry and general industry. OSHA, NYC Department of Buildings and Department of Environmental Protection are among the list of certification courses we offer.</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Heath Services. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mamabites, Inc.</t>
+          <t>M &amp; M Pest Control Inc.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Stella Likitsakos</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>347-386-9555</t>
-        </is>
+          <t>Timothy Wong</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2122198218</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>mamabitecafe@gmail.com</t>
+          <t>management@mmenviro.net</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>45443</v>
+      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>42-09 28th Street</t>
+          <t>39-27 29th Street</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>14th floor</t>
+          <t>Suite 3</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7296,55 +7294,57 @@
       <c r="L102" t="n">
         <v>11101</v>
       </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>http://www.mandmpestcontrol.com</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Mamabite was founded by a mother daughter team in 2012. Mamabite is a cafe that was specifically designed to purpose NYC DOH, but we are able to customize a cafÃ©/menu for anyoneâs needs. We provide healthy prepackaged foods, coffee, snacks, and breakfast goods that eliminates wait times for our customers. Mamabite also caters for party sizes starting from 20 people and up.</t>
+          <t>Pest control, air quality testing, mold, lead inspections, and remediation.</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Heath Services. </t>
+          <t xml:space="preserve"> |Finance &amp; Insurance. </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Not Jus Southern LLC</t>
+          <t>MIDRE Contracting Corp.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Annie Taylor</t>
+          <t>Marco Mendez</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7182859185</v>
+        <v>7188964266</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>njscaterer@ymail.com</t>
+          <t>marco@midrecontracting.com</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>06/29/2023;06/29/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>44619</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>36-46 37th Street</t>
+          <t>42-71 Hunter Street</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -7363,64 +7363,60 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>http://notjussouthern.com</t>
+          <t>http://www.midre.com</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Offsite catering company. We provide 5 cuisines including desserts to all types of private and business events, meetings,  or functions.</t>
+          <t>HVAC Services</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SoHa Atelier Corp</t>
+          <t>Nunez Electric, Inc.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Catherine Park</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>9175592182</v>
+          <t>Jose Nunez</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>718-786-6473</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>csp@site-teller.com</t>
+          <t>nunezelectric@aol.com</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>01/30/2023;01/30/2023</t>
-        </is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>45137</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2728 Thomson Ave</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Suite #235</t>
-        </is>
-      </c>
+          <t>3214 Greenpoint Avenue</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -7434,64 +7430,54 @@
       <c r="L104" t="n">
         <v>11101</v>
       </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>http://www.site-teller.com</t>
-        </is>
-      </c>
+      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
-          <t>SoHa Atelier identifies the site and determine the perfect fit of a project by reading the past and present context to determine its future potential. Based on this analysis we propose an actual plan to create a retrofitting existing structure of architecture. We are focusing on commercial, residential and restoration with a special emphasis on reviving abandoned urban areas through retrofitting. (construction Management, Cost estimates/negotiations, Value engineering, Bid/cost analysis, Owners representation, Scheduling, Project Management , Inspection, BIM coordination, Feasibility Studies)</t>
+          <t>Specialize in broad range of electrical services, data, wiring, lighting and power. Public address and fire alarm systems, energy start compliances, and building management systems installation and maintenance.</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Food &amp; Hospitality. </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Demerara Engineering, PLLC</t>
+          <t>Gallery Design Studio LLC</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Oscar Walters</t>
+          <t>Caroline Petersen</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2123834897</v>
+        <v>3473307615</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Owalters@demeraraeng.com</t>
+          <t>caroline@gallerydesignstudio.com</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="n">
-        <v>44134</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>37-24 24th Street, Suite 231</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>2nd Floor</t>
-        </is>
-      </c>
+          <t>31-00 47th Ave, Third floor</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -7507,55 +7493,55 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>http://www.demeraraeng.com</t>
+          <t>http://gallerydesignstudio.com</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Demerara Engineering, PLLC provides structural and foundation engineering consulting and construction related professional engineering services.</t>
+          <t>Graphic design studio based in Long Island City proving branding services specializing in non-profits and media organizations as well as food startups.</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Natural Resources/Environmetal. </t>
+          <t xml:space="preserve"> |Food &amp; Hospitality.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Urban Projects Collaborative, LLC</t>
+          <t>American Taximeters &amp; Communications, Inc.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sarah Haga</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>212-213-0789</t>
-        </is>
+          <t>Yvette Rivera</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>7189374600</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>sarah.haga@upcnyc.com</t>
+          <t>Nelson@AT-C.com</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>44042</v>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>51-01 21st Street</t>
+          <t>21-46 44th Drive</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -7574,58 +7560,62 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>https://www.upcnyc.com</t>
+          <t>http://AT-C.com</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Urban Projects Collaborative (UPC) provides owner representation, aligning client vision, scope budget and schedule, and related services for clients engaged in developing projects and improving real estate holdings. UPC is collectively led by a team of professional with backgrounds in strategic planning, program management, architecture, engineering, construction and project accounting.</t>
+          <t>Sales &amp; Service of accessible dispatching systems, communication equipment, taximeters, taxi top lights, mobile security camera systems, and safety warning devices.</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |Food &amp; Hospitality.  |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Quantum Electric Corp.</t>
+          <t>Mamabites, Inc.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Richard Sobel</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>7187849010</v>
+          <t>Stella Likitsakos</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>347-386-9555</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>rsobel@quantumec.com</t>
+          <t>mamabitecafe@gmail.com</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="n">
-        <v>44226</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>36-24 34th Street</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
+          <t>42-09 28th Street</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>14th floor</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -7637,64 +7627,56 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>11106</v>
+        <v>11101</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
-          <t>Full Service Electrical Contractor in NYC. Work provided includes Electrical, Tele/Data, Security, Fire Alarm, Fiber Optic, Dactronics, Maintenance/Security and Alternative Energy.</t>
+          <t>Mamabite was founded by a mother daughter team in 2012. Mamabite is a cafe that was specifically designed to purpose NYC DOH, but we are able to customize a cafÃ©/menu for anyoneâs needs. We provide healthy prepackaged foods, coffee, snacks, and breakfast goods that eliminates wait times for our customers. Mamabite also caters for party sizes starting from 20 people and up.</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |Heath Services. </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Styling Your Space LLC</t>
+          <t>Act Electrical &amp; Data Supplies Inc.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Jamie Galvis</t>
+          <t>Linda Gruman</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9175844434</v>
+        <v>7189373982</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>jamie@stylingyourspace.com</t>
+          <t>linda@actelectricalinc.com</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MBE,WBE</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>09/29/2023;09/29/2023</t>
-        </is>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>HISPANIC</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>37 34 29th Street</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Suite 4B</t>
-        </is>
-      </c>
+          <t>43-73 9th Street</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -7710,55 +7692,53 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>http://www.stylingyourspace.com</t>
+          <t>http://actelectricalinc.com</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>Styling Your Space is a Full-Service Interior Design studio based in New York City. We provide creative, functional and brand-driven design solutions for commercial spaces across NYC.  We embody the collaboration approach with every project, allowing us to cultivate partnerships with clients and the industry to encourage making sustainable choices that support positive changes in physical environments.  Our services include all design phases - planning, designing, schematics, sourcing, procurement, 3D rendering, project management and installation.</t>
+          <t>Wholesale supplier of electrical products including but not limited to; pipe, street lighting products, wire floor boxes, lighting fixtures, switch gear, ups systems, data equipment, etc.</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |Heath Services.  |Transportation.  |IT. </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DeBoccia Electrical Construction Corp.</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Elaine De Rosa</t>
-        </is>
-      </c>
+          <t>Shine Electronics Co., Inc.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>516-746-7195</t>
+          <t>718-361-7350</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Billing@DeBoccia.com</t>
+          <t>emilychu@shineny.com</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>WBE</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>45688</v>
+      </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>NON-MINORITY</t>
+          <t>ASIAN</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>33-16 38th Avenue</t>
+          <t>42-31 9th Street</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -7775,35 +7755,39 @@
       <c r="L109" t="n">
         <v>11101</v>
       </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>http://www.shineny.com</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>ELECTRIC CONTRACTORS; ELECTRICAL CONSTRUCTION MANAGEMENT; ELECTRICAL TESTING; ELECTRICAL WIRING HARNESSES &amp; SUB-ASSEMBLIE</t>
+          <t>Shine Electronics is a global distributor of new and used mobile handsets and accessories.</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |IT. </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Right Click Inc.</t>
+          <t>C.C.C. Renovation Inc.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tim Cheung</t>
+          <t>Robinson Aqudelo</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>6467366366</v>
+        <v>7183831220</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>tim@rightclickny.com</t>
+          <t>robinson@cccrenovation.com</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7812,19 +7796,23 @@
         </is>
       </c>
       <c r="F110" s="2" t="n">
-        <v>44894</v>
+        <v>45626</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>4301 21st Street, Suite 204</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
+          <t>31-07 Starr Avenue</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Suite 1</t>
+        </is>
+      </c>
       <c r="J110" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -7840,37 +7828,37 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>http://www.rightclickny.com</t>
+          <t>http://www.cccrenovation.com</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>We are an authorized dealer for Copystar. We sell/lease/service office equipment including copier machine, printers, scanner, fax machines, and provide document solutions to offices.</t>
+          <t>We are a full operation general construction company. Our services provide interior/exterior/roofing/masonry/restoration regarding all building maintenance repair &amp; construction service trades to commercial/residential/landmark/condo/co-op structures in -depth knowledge of all aspects of bldg. practices and regulatory compliance.</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |IT. </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Charan Electrical Enterprises, Inc.</t>
+          <t>Demerara Engineering, PLLC</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Kulwant Deol</t>
+          <t>Oscar Walters</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>7187069612</v>
+        <v>2123834897</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>electricdeol@msn.com</t>
+          <t>Owalters@demeraraeng.com</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -7879,19 +7867,23 @@
         </is>
       </c>
       <c r="F111" s="2" t="n">
-        <v>44956</v>
+        <v>44134</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>BLACK</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>9-11 40th Avenue</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr"/>
+          <t>37-24 24th Street, Suite 231</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2nd Floor</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -7907,57 +7899,55 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>http://www.charanelectrical.com</t>
+          <t>http://www.demeraraeng.com</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Provide residential, commercial and government electrical services for new construction design and build renovation, retrofit &amp; maintenance electrical testing, Emergency Power System, HVAC wiring, Fire Alarm System lighting maintenance &amp; troubleshooting.</t>
+          <t>Demerara Engineering, PLLC provides structural and foundation engineering consulting and construction related professional engineering services.</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services. </t>
+          <t xml:space="preserve"> |Natural Resources/Environmetal. </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LaVarro Productions, INC.</t>
+          <t>Urban Projects Collaborative, LLC</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LaVarro Jones</t>
+          <t>Sarah Haga</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>347-528-4941</t>
+          <t>212-213-0789</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>lavarro@lavarro.com</t>
+          <t>sarah.haga@upcnyc.com</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="n">
-        <v>45565</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>BLACK</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2519 Borden Avenue Suite 210</t>
+          <t>51-01 21st Street</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -7976,12 +7966,12 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>http://www.lavarro.com</t>
+          <t>https://www.upcnyc.com</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>LaVarro Productions is a full service video production company.  We produce video in many different areas.  W create banded videos, commercials, training videos, we cover events, and so much more.  Anything that can be produced with video and audio can be done at LaVarro Productions.  We have a partnership with Necessary Studios, a video and audio production facility that has a recording studio, podcast studio as well as a video/photo studio.</t>
+          <t>Urban Projects Collaborative (UPC) provides owner representation, aligning client vision, scope budget and schedule, and related services for clients engaged in developing projects and improving real estate holdings. UPC is collectively led by a team of professional with backgrounds in strategic planning, program management, architecture, engineering, construction and project accounting.</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -7993,43 +7983,47 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>R K SOFTWARE INC.</t>
+          <t>Styling Your Space LLC</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ayala Sharon</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>718-786-9338</t>
-        </is>
+          <t>Jamie Galvis</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>9175844434</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>info@rksoftwareinc.com</t>
+          <t>jamie@stylingyourspace.com</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="n">
-        <v>45168</v>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>09/29/2023;09/29/2023</t>
+        </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>HISPANIC</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>36-36 33rd St. Suite # 100</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr"/>
+          <t>37 34 29th Street</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Suite 4B</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr">
         <is>
           <t>Long Island City</t>
@@ -8041,59 +8035,59 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>11106</v>
+        <v>11101</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>https://www.rksoftwareinc.com</t>
+          <t>http://www.stylingyourspace.com</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>Weâre Pre-Vetted: GSA IT Schedule 70, Certified Microsoft Partner, IBM Partner.   Information Technology Services and Solutions: Custom Software Solutions, Development and Programming, Custom Database, Applications, Websites, Web Portals, e-Learning, Hosting, Data Security, Staffing, SaaS, Microsoft Dynamics 365.   FinTech Solutions: Payment Solutions, ACH Third Party Payment Processor, AML and CTX files, PCI Compliance, KYC Compliance, Data Matching, Customer Identification, FINCEN, OFAC, AML, Credit Check, Risk Determination, Transaction Behavior Expectations and Monitoring.</t>
+          <t>Styling Your Space is a Full-Service Interior Design studio based in New York City. We provide creative, functional and brand-driven design solutions for commercial spaces across NYC.  We embody the collaboration approach with every project, allowing us to cultivate partnerships with clients and the industry to encourage making sustainable choices that support positive changes in physical environments.  Our services include all design phases - planning, designing, schematics, sourcing, procurement, 3D rendering, project management and installation.</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> |Personal Services.  |Media &amp; Entertainment. </t>
+          <t xml:space="preserve"> |Personal Services. </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Optec Communications, Inc.</t>
+          <t>DeBoccia Electrical Construction Corp.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>April Leong</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>7187070177</v>
+          <t>Elaine De Rosa</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>516-746-7195</t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Info@optec.net</t>
+          <t>Billing@DeBoccia.com</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MBE</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="n">
-        <v>45015</v>
-      </c>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>ASIAN</t>
+          <t>NON-MINORITY</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>11-34 49th Avenue</t>
+          <t>33-16 38th Avenue</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -8110,17 +8104,557 @@
       <c r="L114" t="n">
         <v>11101</v>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>ELECTRIC CONTRACTORS; ELECTRICAL CONSTRUCTION MANAGEMENT; ELECTRICAL TESTING; ELECTRICAL WIRING HARNESSES &amp; SUB-ASSEMBLIE</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Correa &amp; Sons Construction Corp.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Jaime Correa</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>3473866825</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>candscontract@aol.com</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>HISPANIC</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>35-37 10th Street</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Suite #1B</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Long Island City</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>11106</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Interior metal &amp; wood framing, drywall, painting and finish carpentry</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Right Click Inc.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Tim Cheung</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>6467366366</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>tim@rightclickny.com</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>4301 21st Street, Suite 204</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Long Island City</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>11101</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>http://www.rightclickny.com</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>We are an authorized dealer for Copystar. We sell/lease/service office equipment including copier machine, printers, scanner, fax machines, and provide document solutions to offices.</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Hermes Waste Services Corp.</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Georgia Mavronasios</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>7183615255</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>georgia@hermeswaste.net</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>WBE</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>NON-MINORITY</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>38-25 10th Street</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Long Island City</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>11101</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>http://www.hermeswaste.net</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Private sanitation company that provides garbage collection to businesses as well as renting out container service.</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Charan Electrical Enterprises, Inc.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Kulwant Deol</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>7187069612</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>electricdeol@msn.com</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>9-11 40th Avenue</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Long Island City</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>11101</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>http://www.charanelectrical.com</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Provide residential, commercial and government electrical services for new construction design and build renovation, retrofit &amp; maintenance electrical testing, Emergency Power System, HVAC wiring, Fire Alarm System lighting maintenance &amp; troubleshooting.</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>LaVarro Productions, INC.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>LaVarro Jones</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>347-528-4941</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>lavarro@lavarro.com</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2519 Borden Avenue Suite 210</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Long Island City</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>11101</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>http://www.lavarro.com</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>LaVarro Productions is a full service video production company.  We produce video in many different areas.  W create banded videos, commercials, training videos, we cover events, and so much more.  Anything that can be produced with video and audio can be done at LaVarro Productions.  We have a partnership with Necessary Studios, a video and audio production facility that has a recording studio, podcast studio as well as a video/photo studio.</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services. </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>R K SOFTWARE INC.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Ayala Sharon</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>718-786-9338</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>info@rksoftwareinc.com</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>36-36 33rd St. Suite # 100</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Long Island City</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>11106</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>https://www.rksoftwareinc.com</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Weâre Pre-Vetted: GSA IT Schedule 70, Certified Microsoft Partner, IBM Partner.   Information Technology Services and Solutions: Custom Software Solutions, Development and Programming, Custom Database, Applications, Websites, Web Portals, e-Learning, Hosting, Data Security, Staffing, SaaS, Microsoft Dynamics 365.   FinTech Solutions: Payment Solutions, ACH Third Party Payment Processor, AML and CTX files, PCI Compliance, KYC Compliance, Data Matching, Customer Identification, FINCEN, OFAC, AML, Credit Check, Risk Determination, Transaction Behavior Expectations and Monitoring.</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services.  |Media &amp; Entertainment. </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SoHa Atelier Corp</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Catherine Park</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>9175592182</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>csp@site-teller.com</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>MBE,WBE</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>01/30/2023;01/30/2023</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2728 Thomson Ave</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Suite #235</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Long Island City</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>11101</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>http://www.site-teller.com</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>SoHa Atelier identifies the site and determine the perfect fit of a project by reading the past and present context to determine its future potential. Based on this analysis we propose an actual plan to create a retrofitting existing structure of architecture. We are focusing on commercial, residential and restoration with a special emphasis on reviving abandoned urban areas through retrofitting. (construction Management, Cost estimates/negotiations, Value engineering, Bid/cost analysis, Owners representation, Scheduling, Project Management , Inspection, BIM coordination, Feasibility Studies)</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> |Personal Services.  |Media &amp; Entertainment. </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Optec Communications, Inc.</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>April Leong</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>7187070177</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Info@optec.net</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>MBE</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>ASIAN</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>11-34 49th Avenue</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Long Island City</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>11101</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>http://www.optec.net</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
+      <c r="N122" t="inlineStr">
         <is>
           <t>Optec has been delivering network solutions and its cable infrastructure since 1988. We can provide you with cabling solutions utilizing various grades of copper or fiber optic cables with satisfaction that goes beyond superior quality of Data &amp; Voice Cabling Infrastructure. Our services include consultation, design, installation, project management and documentation.</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t xml:space="preserve"> |Safety/Security &amp; Legal.  |Media &amp; Entertainment. </t>
         </is>
